--- a/excels/PD/piecesPDmean.xlsx
+++ b/excels/PD/piecesPDmean.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,100 +458,388 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>0D1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.8</v>
+        <v>202.9166666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>196.4</v>
+        <v>192.75</v>
       </c>
       <c r="D2" t="n">
-        <v>187</v>
+        <v>183.0833333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>0D2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.2</v>
+        <v>177.9285714285714</v>
       </c>
       <c r="C3" t="n">
-        <v>136.8</v>
+        <v>166.4285714285714</v>
       </c>
       <c r="D3" t="n">
-        <v>132</v>
+        <v>158.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>0D3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.2</v>
+        <v>175.7857142857143</v>
       </c>
       <c r="C4" t="n">
-        <v>163.2</v>
+        <v>163.6428571428571</v>
       </c>
       <c r="D4" t="n">
-        <v>156.2</v>
+        <v>156.2857142857143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>0D4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.2</v>
+        <v>163.2307692307692</v>
       </c>
       <c r="C5" t="n">
-        <v>130.2</v>
+        <v>153.0769230769231</v>
       </c>
       <c r="D5" t="n">
-        <v>124.8</v>
+        <v>145.5384615384615</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>0D5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106.25</v>
+        <v>89.84615384615384</v>
       </c>
       <c r="C6" t="n">
-        <v>76.25</v>
+        <v>80.38461538461539</v>
       </c>
       <c r="D6" t="n">
-        <v>77.75</v>
+        <v>78.53846153846153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>0D6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.25</v>
+        <v>69.88888888888889</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>59.44444444444444</v>
       </c>
       <c r="D7" t="n">
-        <v>58</v>
+        <v>59.44444444444444</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1D0</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>144.7333333333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>130.5333333333333</v>
+      </c>
+      <c r="D8" t="n">
+        <v>124.2666666666667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1D1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>112.7333333333333</v>
+      </c>
+      <c r="D9" t="n">
+        <v>108.0666666666667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1D2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>104.5333333333333</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100.9333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1D3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>121.8125</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100.5625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>97.1875</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1D4</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>114.3333333333333</v>
+      </c>
+      <c r="C12" t="n">
+        <v>94.53333333333333</v>
+      </c>
+      <c r="D12" t="n">
+        <v>91.66666666666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1D5</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>112.9333333333333</v>
+      </c>
+      <c r="C13" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="D13" t="n">
+        <v>90.40000000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1D6</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>90</v>
+      </c>
+      <c r="D14" t="n">
+        <v>87.26666666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1D7</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>160.1333333333333</v>
+      </c>
+      <c r="C15" t="n">
+        <v>153.7333333333333</v>
+      </c>
+      <c r="D15" t="n">
+        <v>145.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1D8</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>147.3333333333333</v>
+      </c>
+      <c r="C16" t="n">
+        <v>141.4666666666667</v>
+      </c>
+      <c r="D16" t="n">
+        <v>133.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2D0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>160.4444444444445</v>
+      </c>
+      <c r="C17" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>141.8888888888889</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2D1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>139.0555555555555</v>
+      </c>
+      <c r="C18" t="n">
+        <v>124.5555555555556</v>
+      </c>
+      <c r="D18" t="n">
+        <v>118.9444444444444</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2D2</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>126.6315789473684</v>
+      </c>
+      <c r="C19" t="n">
+        <v>107.1578947368421</v>
+      </c>
+      <c r="D19" t="n">
+        <v>103.3157894736842</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2D3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>120.3157894736842</v>
+      </c>
+      <c r="C20" t="n">
+        <v>102.3157894736842</v>
+      </c>
+      <c r="D20" t="n">
+        <v>98.89473684210526</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2D4</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>113.8947368421053</v>
+      </c>
+      <c r="C21" t="n">
+        <v>97.31578947368421</v>
+      </c>
+      <c r="D21" t="n">
+        <v>94.05263157894737</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2D5</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>109.45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>91.95</v>
+      </c>
+      <c r="D22" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2D6</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>102.2105263157895</v>
+      </c>
+      <c r="C23" t="n">
+        <v>86.73684210526316</v>
+      </c>
+      <c r="D23" t="n">
+        <v>84.26315789473684</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2D7</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>173</v>
+      </c>
+      <c r="D24" t="n">
+        <v>163.7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2D8</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>156.1666666666667</v>
+      </c>
+      <c r="C25" t="n">
+        <v>164.8333333333333</v>
+      </c>
+      <c r="D25" t="n">
+        <v>155.8333333333333</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>